--- a/bots/crawl_ch/output/clothes_2022-07-17.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-07-17.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -683,32 +683,30 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6365819004</t>
+          <t>3404678008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Schwarz 43 - 45</t>
+          <t>Naturaline Herren Boxer schwarz XL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-schwarz-43-45/p/6365819004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-xl/p/3404678008</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -717,7 +715,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -726,46 +724,42 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Schwarz 43 - 45 8.95 Schweizer Franken</t>
+          <t>Naturaline Herren Boxer schwarz XL 49% Aktion 9.50 Schweizer Franken statt 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3500481002</t>
+          <t>6365819004</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prix Garantie Knie. Box one size natural</t>
+          <t>Naturaline Herren Sneaker Casual Duo Schwarz 43 - 45</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/prix-garantie-knie-box-one-size-natural/p/3500481002</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-schwarz-43-45/p/6365819004</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -774,65 +768,55 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.44/1ST</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Prix Garantie Knie. Box one size natural 2.65 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Schwarz 43 - 45 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3404678008</t>
+          <t>3500481002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz XL</t>
+          <t>Prix Garantie Knie. Box one size natural</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-xl/p/3404678008</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/prix-garantie-knie-box-one-size-natural/p/3500481002</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -841,26 +825,42 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.44/1ST</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz XL 49% Aktion 9.50 Schweizer Franken statt 18.95 Schweizer Franken</t>
+          <t>Prix Garantie Knie. Box one size natural 2.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1528,32 +1528,32 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6365980009</t>
+          <t>3450446007</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42</t>
+          <t>Naturaline Herren Shirt schwarz L</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-schwarz-40-42/p/6365980009</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-l/p/3450446007</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1571,75 +1571,57 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz L 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6077158005</t>
+          <t>6365980009</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Natural One Size</t>
+          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-natural-one-size/p/6077158005</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-schwarz-40-42/p/6365980009</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2.48/1ST</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
           <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
@@ -1647,82 +1629,100 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Natural One Size 4.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Schwarz 40 - 42 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3450446007</t>
+          <t>6077158005</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz L</t>
+          <t>Avela Söckchen Ideal Natural One Size</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-l/p/3450446007</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-natural-one-size/p/6077158005</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2.48/1ST</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz L 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Natural One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3305484009</t>
+          <t>3450446008</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss L</t>
+          <t>Naturaline Herren Shirt schwarz XL</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-l/p/3305484009</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-xl/p/3450446008</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -1746,34 +1746,34 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip weiss L 7.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz XL 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6365978009</t>
+          <t>3305484009</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38</t>
+          <t>Naturaline Damen Slip weiss L</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-socken-glatt-duo-schwarz-35-38/p/6365978009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-weiss-l/p/3305484009</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -1797,34 +1797,34 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38 8.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip weiss L 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3450446006</t>
+          <t>6365978009</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz M</t>
+          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-m/p/3450446006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-damen-socken-glatt-duo-schwarz-35-38/p/6365978009</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -1848,34 +1848,34 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz M 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Naturaline Damen Socken Glatt Duo Schwarz 35 - 38 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3450446008</t>
+          <t>3450446006</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz XL</t>
+          <t>Naturaline Herren Shirt schwarz M</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-xl/p/3450446008</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-shirt-schwarz-m/p/3450446006</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1904,12 +1904,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Naturaline Herren Shirt schwarz XL 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
+          <t>Naturaline Herren Shirt schwarz M 50% Aktion 9.95 Schweizer Franken statt 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2033,30 +2033,32 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6365978010</t>
+          <t>3404678005</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Women's socks Duo Glatt 39-41 schwarz</t>
+          <t>Naturaline Herren Boxer schwarz S</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/women-s-socks-duo-glatt-39-41-schwarz/p/6365978010</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-s/p/3404678005</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2065,7 +2067,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -2074,34 +2076,34 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Women's socks Duo Glatt 39-41 schwarz 8.95 Schweizer Franken</t>
+          <t>Naturaline Herren Boxer schwarz S 50% Aktion 9.45 Schweizer Franken statt 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6365819006</t>
+          <t>6365978010</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45</t>
+          <t>Women's socks Duo Glatt 39-41 schwarz</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-43-45/p/6365819006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/women-s-socks-duo-glatt-39-41-schwarz/p/6365978010</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2130,29 +2132,29 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45 8.95 Schweizer Franken</t>
+          <t>Women's socks Duo Glatt 39-41 schwarz 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6031467020</t>
+          <t>6365819006</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-xxl/p/6031467020</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-43-45/p/6365819006</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2167,7 +2169,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -2176,42 +2178,40 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 43 - 45 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3404678005</t>
+          <t>6031467020</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz S</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-s/p/3404678005</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-xxl/p/6031467020</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="n">
-        <v>1</v>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -2229,17 +2229,17 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz S 50% Aktion 9.45 Schweizer Franken statt 18.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz XXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2312,39 +2312,41 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3305779008</t>
+          <t>6075745007</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty M weiss</t>
+          <t>Avela Strumpfhose Madame Hasel  10 - 10.5</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-m-weiss/p/3305779008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-10-105/p/6075745007</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -2353,42 +2355,40 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty M weiss 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  10 - 10.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6075745007</t>
+          <t>6075749002</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  10 - 10.5</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-10-105/p/6075745007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-13-14/p/6075749002</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="n">
-        <v>1</v>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -2411,29 +2411,29 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  10 - 10.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Hasel  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6075749002</t>
+          <t>3305779008</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  13 - 14</t>
+          <t>Naturaline Damen Panty M weiss</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-13-14/p/6075749002</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-m-weiss/p/3305779008</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -2443,12 +2443,12 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -2457,17 +2457,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  13 - 14 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty M weiss 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2518,24 +2518,24 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6365819003</t>
+          <t>6031467007</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Schwarz 40 - 42</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss M</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-schwarz-40-42/p/6365819003</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-m/p/6031467007</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -2559,34 +2559,34 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Schwarz 40 - 42 8.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss M 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6031467007</t>
+          <t>6365819003</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss M</t>
+          <t>Naturaline Herren Sneaker Casual Duo Schwarz 40 - 42</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-m/p/6031467007</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-schwarz-40-42/p/6365819003</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -2610,17 +2610,17 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss M 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Schwarz 40 - 42 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -3052,37 +3052,41 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>5799901001</t>
+          <t>3305484005</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu marine</t>
+          <t>Naturaline Damen Slip schwarz M</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-marine/p/5799901001</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-m/p/3305484005</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>5</v>
       </c>
-      <c r="G48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3091,51 +3095,47 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Taschenschirm Alu marine 19.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip schwarz M 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3305484005</t>
+          <t>5799901001</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz M</t>
+          <t>Taschenschirm Alu marine</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-m/p/3305484005</t>
+          <t>/de/haushalt-tier/bekleidung/taschen-accessoires/schirme/taschenschirm-alu-marine/p/5799901001</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
         <v>5</v>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -3144,51 +3144,49 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'taschen-accessoires', 'schirme']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz M 7.95 Schweizer Franken</t>
+          <t>Taschenschirm Alu marine 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6031467008</t>
+          <t>6075745015</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss L</t>
+          <t>Avela Strumpfhose Madame Noir  10 - 10.5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-l/p/6031467008</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-10-105/p/6075745015</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3197,49 +3195,51 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss L - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Noir  10 - 10.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6075745009</t>
+          <t>6031467019</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  8.5 - 9</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-85-9/p/6075745009</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarzxl/p/6031467019</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -3248,49 +3248,51 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6075745015</t>
+          <t>6031467008</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  10 - 10.5</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss L</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-10-105/p/6075745015</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-l/p/6031467008</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>1</v>
+      </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
@@ -3299,51 +3301,49 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  10 - 10.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss L - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>6031467019</t>
+          <t>6075745009</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL</t>
+          <t>Avela Strumpfhose Madame Natural  8.5 - 9</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarzxl/p/6031467019</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-85-9/p/6075745009</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -3352,34 +3352,34 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarzXL 24.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Natural  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6031467009</t>
+          <t>3305779004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
+          <t>Naturaline Damen Panty S schwarz</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-schwarz/p/3305779004</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -3403,34 +3403,34 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Naturaline Damen Panty S schwarz 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3305779004</t>
+          <t>6031467009</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S schwarz</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-panty-s-schwarz/p/3305779004</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weissxl/p/6031467009</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -3454,34 +3454,34 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Naturaline Damen Panty S schwarz 9.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weissXL - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6365819005</t>
+          <t>6075745012</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-40-42/p/6365819005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3491,12 +3491,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -3505,105 +3505,85 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42 8.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Natural  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6866453</t>
+          <t>6365819005</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche L</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-l/p/6866453</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-sneaker-casual-duo-weiss-40-42/p/6365819005</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>24.50/1ST</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>24.50</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche L 24.50 Schweizer Franken</t>
+          <t>Naturaline Herren Sneaker Casual Duo Weiss 40 - 42 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6866452</t>
+          <t>6866453</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M</t>
+          <t>Selenacare Menstruationsunterwäsche L</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-l/p/6866453</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3652,34 +3632,34 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche L 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>6077158006</t>
+          <t>6866452</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Noir One Size</t>
+          <t>Selenacare Menstruationsunterwäsche M</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-noir-one-size/p/6077158006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-m/p/6866452</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -3688,17 +3668,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>24.50</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>2.48/1ST</t>
+          <t>24.50/1ST</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3708,7 +3688,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>24.50</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3718,37 +3698,41 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Noir One Size 4.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche M 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>6075745012</t>
+          <t>6077158006</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12</t>
+          <t>Avela Söckchen Ideal Noir One Size</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-natural-11-12/p/6075745012</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-noir-one-size/p/6077158006</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
         <v>0</v>
@@ -3760,43 +3744,59 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2.48/1ST</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Natural  11 - 12 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Noir One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>3305289015</t>
+          <t>3305484006</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L</t>
+          <t>Naturaline Damen Slip schwarz L</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-l/p/3305484006</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -3825,29 +3825,29 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
+          <t>Naturaline Damen Slip schwarz L 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6031467017</t>
+          <t>3305289015</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
+          <t>Naturaline Herren Slip weiss L</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-slip-weiss-l/p/3305289015</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -3871,34 +3871,34 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Slip weiss L 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6075745013</t>
+          <t>6031467017</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  8.5 - 9</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-85-9/p/6075745013</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-schwarz-m/p/6031467017</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -3908,12 +3908,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -3922,51 +3922,49 @@
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Noir  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3875554005</t>
+          <t>6075745013</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz M</t>
+          <t>Avela Strumpfhose Madame Noir  8.5 - 9</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-m/p/3875554005</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-noir-85-9/p/6075745013</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -3975,34 +3973,34 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Naturaline Büstier schwarz M 14.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Noir  8.5 - 9 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3305484006</t>
+          <t>6075749001</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz L</t>
+          <t>Avela Strumpfhose Top Size Hasel  11 - 12</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-damen-slip-schwarz-l/p/3305484006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-11-12/p/6075749001</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -4012,12 +4010,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -4026,40 +4024,42 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Naturaline Damen Slip schwarz L 7.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Top Size Hasel  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>6365980012</t>
+          <t>3875554005</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
+          <t>Naturaline Büstier schwarz M</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-buestier-schwarz-m/p/3875554005</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -4077,34 +4077,34 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
+          <t>Naturaline Büstier schwarz M 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>6365980012</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -4128,34 +4128,34 @@
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>6031467010</t>
+          <t>6031467006</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -4184,29 +4184,29 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6075749001</t>
+          <t>6031467010</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-top-size-hasel-11-12/p/6075749001</t>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-xxl/p/6031467010</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -4216,12 +4216,12 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -4230,17 +4230,17 @@
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Top Size Hasel  11 - 12 50% Aktion 1.95 Schweizer Franken statt 3.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss XXL 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -4346,78 +4346,58 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>6866483</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Tena</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>34.95/1ST</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>34.95</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -4470,29 +4450,29 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>6077158004</t>
+          <t>6866483</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Hasel One Size</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-hasel-one-size/p/6077158004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/tena-silhouette-waschbarer-inko-slip-m/p/6866483</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -4501,17 +4481,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Tena</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2.48/1ST</t>
+          <t>34.95/1ST</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4521,7 +4501,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>34.95</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4531,34 +4511,34 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Avela Söckchen Ideal Hasel One Size 4.95 Schweizer Franken</t>
+          <t>Tena Silhouette waschbarer Inko-Slip M 34.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>6077154004</t>
+          <t>6077158004</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size</t>
+          <t>Avela Söckchen Ideal Hasel One Size</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-ideal-hasel-one-size/p/6077158004</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4577,12 +4557,12 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>1.48/1ST</t>
+          <t>2.48/1ST</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -4592,7 +4572,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4607,32 +4587,36 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
+          <t>Avela Söckchen Ideal Hasel One Size 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>6077154004</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Avela Söckchen Pure Natural One Size</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/avela-soeckchen-pure-natural-one-size/p/6077154004</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="n">
         <v>0</v>
@@ -4647,23 +4631,39 @@
           <t>2.95</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>1.48/1ST</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 50% Aktion 2.95 Schweizer Franken statt 5.95 Schweizer Franken</t>
+          <t>Avela Söckchen Pure Natural One Size 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -4714,7 +4714,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -4763,7 +4763,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -4834,7 +4834,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5323,7 +5323,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5427,7 +5427,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5478,7 +5478,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5631,7 +5631,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6400,7 +6400,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6655,7 +6655,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6808,7 +6808,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7232,7 +7232,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7303,7 +7303,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7352,7 +7352,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7399,7 +7399,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
@@ -7495,7 +7495,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-07-17 07:02:36</t>
+          <t>2022-07-17 20:57:42</t>
         </is>
       </c>
     </row>
